--- a/Excel_read90.xlsx
+++ b/Excel_read90.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,88 +422,111 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="B1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>123456</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>654321</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>123123</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>456456</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>789789</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Person 1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Arthur</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">John </t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Bill</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Dutch</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Javier</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Person 2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0951803237</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0508958010</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Person 3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>Telephone</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0951803237</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>0508958010</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
